--- a/experiment_record/MNIST.xlsx
+++ b/experiment_record/MNIST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD275CC9-17D6-4D98-90EF-06B975417661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC29B90-2088-4CAE-9284-9FCD9ECE6FC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>alpha</t>
   </si>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,6 +205,56 @@
         <a:xfrm>
           <a:off x="0" y="4905375"/>
           <a:ext cx="2714625" cy="2714625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212FA83D-A34C-437B-8841-C19B833AD0E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9067800" y="4895850"/>
+          <a:ext cx="2714626" cy="2714626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -475,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,9 +544,12 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +577,35 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.5</v>
       </c>
@@ -549,8 +633,35 @@
       <c r="I2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -558,8 +669,17 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -577,8 +697,25 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>50</v>
+      </c>
+      <c r="N4" s="1">
+        <v>100</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -596,8 +733,25 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -605,8 +759,17 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -621,8 +784,23 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -640,8 +818,25 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -649,8 +844,17 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -664,8 +868,21 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -679,8 +896,21 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1">
+        <v>162.220162210323</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -694,8 +924,21 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12" s="1">
+        <v>20</v>
+      </c>
+      <c r="L12" s="1">
+        <v>95.9005676996495</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>30</v>
       </c>
@@ -709,8 +952,21 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13" s="1">
+        <v>30</v>
+      </c>
+      <c r="L13" s="1">
+        <v>89.554260091711001</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>40</v>
       </c>
@@ -724,8 +980,21 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14" s="1">
+        <v>40</v>
+      </c>
+      <c r="L14" s="1">
+        <v>81.783800419729104</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>50</v>
       </c>
@@ -739,8 +1008,21 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15" s="1">
+        <v>50</v>
+      </c>
+      <c r="L15" s="1">
+        <v>81.048245534348894</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>60</v>
       </c>
@@ -754,8 +1036,21 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K16" s="1">
+        <v>60</v>
+      </c>
+      <c r="L16" s="1">
+        <v>79.905425890605201</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>70</v>
       </c>
@@ -769,8 +1064,21 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K17" s="1">
+        <v>70</v>
+      </c>
+      <c r="L17" s="1">
+        <v>73.132883140411906</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>80</v>
       </c>
@@ -784,8 +1092,21 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K18" s="1">
+        <v>80</v>
+      </c>
+      <c r="L18" s="1">
+        <v>74.362595060320501</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>90</v>
       </c>
@@ -799,8 +1120,21 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K19" s="1">
+        <v>90</v>
+      </c>
+      <c r="L19" s="1">
+        <v>71.043403696511604</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>100</v>
       </c>
@@ -814,8 +1148,21 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K20" s="1">
+        <v>100</v>
+      </c>
+      <c r="L20" s="1">
+        <v>70.440528962231895</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>110</v>
       </c>
@@ -829,8 +1176,21 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K21" s="1">
+        <v>110</v>
+      </c>
+      <c r="L21" s="1">
+        <v>69.117508367095297</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>120</v>
       </c>
@@ -846,8 +1206,21 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" s="1">
+        <v>120</v>
+      </c>
+      <c r="L22" s="1">
+        <v>74.626330484505502</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>130</v>
       </c>
@@ -861,8 +1234,21 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K23" s="1">
+        <v>130</v>
+      </c>
+      <c r="L23" s="1">
+        <v>72.953902903371102</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>140</v>
       </c>
@@ -876,8 +1262,21 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K24" s="1">
+        <v>140</v>
+      </c>
+      <c r="L24" s="1">
+        <v>75.055262984284596</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>150</v>
       </c>
@@ -891,8 +1290,21 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K25" s="1">
+        <v>150</v>
+      </c>
+      <c r="L25" s="1">
+        <v>72.118444587144893</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -901,7 +1313,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -912,6 +1324,9 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
